--- a/data/outputs/OR_altmetric/64.xlsx
+++ b/data/outputs/OR_altmetric/64.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE64"/>
+  <dimension ref="A1:CF64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1035,6 +1040,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1288,6 +1296,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1533,6 +1544,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1786,6 +1800,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2031,6 +2048,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2272,6 +2292,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2521,6 +2544,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2768,6 +2794,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3023,6 +3052,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3264,6 +3296,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3522,6 +3557,9 @@
       </c>
       <c r="CE12" t="n">
         <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="13">
@@ -3762,6 +3800,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4013,6 +4054,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4252,6 +4296,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4497,6 +4544,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4752,6 +4802,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4993,6 +5046,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5246,6 +5302,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5495,6 +5554,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5736,6 +5798,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5983,6 +6048,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6222,6 +6290,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6469,6 +6540,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6714,6 +6788,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6959,6 +7036,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7208,6 +7288,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7451,6 +7534,9 @@
         <v>0</v>
       </c>
       <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7692,6 +7778,9 @@
       <c r="CE29" t="n">
         <v>1</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7943,6 +8032,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8198,6 +8290,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>3.05</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8443,6 +8538,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8694,6 +8792,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8943,6 +9044,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9198,6 +9302,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9443,6 +9550,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9684,6 +9794,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9939,6 +10052,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10184,6 +10300,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10437,6 +10556,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10688,6 +10810,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10929,6 +11054,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11170,6 +11298,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11423,6 +11554,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11672,6 +11806,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11919,6 +12056,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12162,6 +12302,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12403,6 +12546,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12646,6 +12792,9 @@
         <v>0</v>
       </c>
       <c r="CE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12885,6 +13034,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13130,6 +13282,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13373,6 +13528,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13626,6 +13784,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13871,6 +14032,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14124,6 +14288,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14370,6 +14537,9 @@
       </c>
       <c r="CE56" t="n">
         <v>0</v>
+      </c>
+      <c r="CF56" t="n">
+        <v>7.05</v>
       </c>
     </row>
     <row r="57">
@@ -14610,6 +14780,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14851,6 +15024,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15097,6 +15273,9 @@
       </c>
       <c r="CE59" t="n">
         <v>0</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="60">
@@ -15337,6 +15516,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15579,6 +15761,9 @@
       </c>
       <c r="CE61" t="n">
         <v>0</v>
+      </c>
+      <c r="CF61" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="62">
@@ -15813,6 +15998,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16051,6 +16239,9 @@
       </c>
       <c r="CE63" t="n">
         <v>0</v>
+      </c>
+      <c r="CF63" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="64">
@@ -16289,6 +16480,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
